--- a/API_py_scripts_demo2/myapidata.xlsx
+++ b/API_py_scripts_demo2/myapidata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E54D1B-E40C-4DEB-99A0-A19D2B4CB04C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F4221C-59C0-440E-83BA-4A7899790B8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,18 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/farmplantend/plantUser/loginOrReg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,85 +91,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ip=192.168.1.15&amp;mobilePhone=18301212965</t>
+    <t>bdh获取钱包余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/farmplantend/farmlands/count</t>
+  </si>
+  <si>
+    <t>根据id获取地块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev01.bdhlan.com:8080/bdhsystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据i获取验证码d获取地块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/farmplantend/plantUser/checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆成功</t>
-  </si>
-  <si>
-    <t>bdh获取验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh获取钱包余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev01.bdhlan.com:8080/bdhsystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkCode=9331&amp;mobilePhone=18301212965</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded;charset=utf-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/farmplantend/farmlands/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh添加地块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farmlandName=3号地块&amp;farmlandArea=19&amp;type=1&amp;farmlandLevel=2&amp;farmlandSoilQuality=2&amp;pictures=["http://farmlandbucketstest.oss-cn-beijing.aliyuncs.com/21B7F1920D734078898AD63088736D55"]&amp;userId=1&amp;otherInstructions=others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "errno" : 0, "errmsg" : null, "data" : null }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8864Xl1WY6JSUe7hBTfmgOsGckPFbW8dRASuVNQsSi13eY+3l8EgNcPQw/L1xVFFTB/qiFyd41sRy1AOb3oqfZSs9pPYXDzMCKDb92L</t>
-  </si>
-  <si>
-    <t>/farmplantend/plantUserWallet/transLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh查看钱包交易记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page=1&amp;rows=10</t>
+  </si>
+  <si>
+    <t>ip=192.168.1.17&amp;mobilePhone=15701137117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,97 +133,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/bdhsystem/farmplantend/farmlands</t>
-  </si>
-  <si>
-    <t>bdh查看指定页地块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farmlandId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/farmlands/481f154be52f40ecb757854a78f99a9a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/farmplantend/farmlands/481f154be52f40ecb757854a78f99a9a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh订单编号-查看地块详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh根据id获取地块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh更新地块信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/goodscenter/goods/listGoodsQueryForApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goodsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/goodscenter/category/listCategoryQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh获取所有商品分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh获取农资商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/farmassets/stores/goods/37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh根据ID查看商品详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/goodscenter/unit/listUnitQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh获取所有规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶/箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bdh首页农资展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/goodscenter/goods/listGoodsQueryForAppOfHomePage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bdhsystem/farmplantend/farmlands/count</t>
-  </si>
-  <si>
-    <t>K683T49WY6JSUe7hBTfmgOsGckPFbW8dRASuVNQiLXj9xMEKMy6G2JHz5U6Ll7OZIuQ53b2plv+2e+JI6JI5TW9YjeQTnDzMCKDb92L</t>
+    <t>A25nA3rWY6JSUe7hBTfmgOsGckPFbW8dRASuVNQg6aVzXEbIueroASUCHx4zoWFU+wRbJPLnq0TVU8ojlKciOysLqjOYnDzMCKDb92L</t>
   </si>
 </sst>
 </file>
@@ -601,22 +459,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="41.625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="8" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="11" max="11" width="17.75" customWidth="1"/>
     <col min="12" max="12" width="13.375" customWidth="1"/>
   </cols>
@@ -635,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -664,25 +523,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -690,332 +549,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
         <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1026,17 +578,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE58D9-BC36-4203-8864-DC26C7C81662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400E59C3-8DE3-48BD-BEAC-6FDDF917E956}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1053,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1082,31 +635,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
